--- a/week1/day2/poke_mart_blank.xlsx
+++ b/week1/day2/poke_mart_blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/investmentguy/Documents/coding_temple/week1/day2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43E162C7-8BAB-AA4A-9F22-6A7C76C77FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33CFD75-EF7D-854E-B976-AD64016B99D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29300" yWindow="2320" windowWidth="29040" windowHeight="15720" xr2:uid="{E08D3CCF-C39B-499D-B4FA-405E21B99C60}"/>
+    <workbookView xWindow="-29040" yWindow="4680" windowWidth="29040" windowHeight="15720" xr2:uid="{E08D3CCF-C39B-499D-B4FA-405E21B99C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
